--- a/PdfBoxTest/SalesHistoryPrinting.xlsx
+++ b/PdfBoxTest/SalesHistoryPrinting.xlsx
@@ -10,7 +10,7 @@
     <sheet name="SalesHistoryPrinting" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesHistoryPrinting!$A$1:$AS$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesHistoryPrinting!$A$2:$AS$64</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2506,10 +2506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR65"/>
+  <dimension ref="A2:AR67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2544,387 +2544,185 @@
     <col min="43" max="43" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>338168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2">
-        <v>740545140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2">
-        <v>4870</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="1">
-        <v>181137000000</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2">
-        <v>42088</v>
-      </c>
-      <c r="W2" s="2">
-        <v>42088</v>
-      </c>
-      <c r="X2" s="2">
-        <v>42088</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1332940000000</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2">
-        <v>4870</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>348015</v>
-      </c>
-      <c r="B3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D3">
-        <v>42507902970</v>
-      </c>
-      <c r="E3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" t="s">
-        <v>436</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3">
-        <v>3169</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1">
-        <v>161023000000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>224</v>
-      </c>
-      <c r="N3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" t="s">
-        <v>226</v>
-      </c>
-      <c r="U3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="2">
-        <v>42110</v>
-      </c>
-      <c r="W3" s="2">
-        <v>42110</v>
-      </c>
-      <c r="X3" s="2">
-        <v>42110</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1246110000000</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>435</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>436</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ3">
-        <v>3169</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>348045</v>
+        <v>338168</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>61449071975</v>
+        <v>740545140</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="J4">
-        <v>5083</v>
+        <v>4870</v>
       </c>
       <c r="K4" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="1">
-        <v>161023000000</v>
+        <v>181137000000</v>
       </c>
       <c r="M4" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
         <v>54</v>
@@ -2933,31 +2731,31 @@
         <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="U4" t="s">
         <v>55</v>
       </c>
       <c r="V4" s="2">
-        <v>42110</v>
+        <v>42088</v>
       </c>
       <c r="W4" s="2">
-        <v>42110</v>
+        <v>42088</v>
       </c>
       <c r="X4" s="2">
-        <v>42110</v>
+        <v>42088</v>
       </c>
       <c r="Z4" t="s">
         <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>443</v>
+        <v>87</v>
       </c>
       <c r="AD4" t="s">
         <v>58</v>
       </c>
       <c r="AF4" s="1">
-        <v>1246120000000</v>
+        <v>1332940000000</v>
       </c>
       <c r="AI4" t="s">
         <v>59</v>
@@ -2966,16 +2764,16 @@
         <v>59</v>
       </c>
       <c r="AM4" t="s">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AP4" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="AQ4">
-        <v>5083</v>
+        <v>4870</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -2983,31 +2781,31 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>347764</v>
+        <v>348015</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="D5">
-        <v>287043069</v>
+        <v>42507902970</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="H5" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J5">
-        <v>2166</v>
+        <v>3169</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
@@ -3022,7 +2820,7 @@
         <v>225</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>226</v>
@@ -3034,7 +2832,7 @@
         <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U5" t="s">
         <v>55</v>
@@ -3052,13 +2850,13 @@
         <v>56</v>
       </c>
       <c r="AC5" t="s">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="AD5" t="s">
         <v>58</v>
       </c>
       <c r="AF5" s="1">
-        <v>1246010000000</v>
+        <v>1246110000000</v>
       </c>
       <c r="AI5" t="s">
         <v>59</v>
@@ -3067,16 +2865,16 @@
         <v>59</v>
       </c>
       <c r="AM5" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="AO5" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="AP5" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ5">
-        <v>2166</v>
+        <v>3169</v>
       </c>
       <c r="AR5" t="s">
         <v>50</v>
@@ -3084,31 +2882,31 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>347440</v>
+        <v>348045</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="1">
-        <v>610408000000</v>
+        <v>439</v>
+      </c>
+      <c r="D6">
+        <v>61449071975</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>442</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="J6">
-        <v>4129</v>
+        <v>5083</v>
       </c>
       <c r="K6" t="s">
         <v>50</v>
@@ -3141,25 +2939,25 @@
         <v>55</v>
       </c>
       <c r="V6" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W6" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X6" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z6" t="s">
         <v>56</v>
       </c>
       <c r="AC6" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="AD6" t="s">
         <v>58</v>
       </c>
       <c r="AF6" s="1">
-        <v>1245670000000</v>
+        <v>1246120000000</v>
       </c>
       <c r="AI6" t="s">
         <v>59</v>
@@ -3168,16 +2966,16 @@
         <v>59</v>
       </c>
       <c r="AM6" t="s">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="AO6" t="s">
-        <v>223</v>
+        <v>442</v>
       </c>
       <c r="AP6" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="AQ6">
-        <v>4129</v>
+        <v>5083</v>
       </c>
       <c r="AR6" t="s">
         <v>50</v>
@@ -3185,49 +2983,49 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>345244</v>
+        <v>347764</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="D7">
-        <v>433329178</v>
+        <v>287043069</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J7">
-        <v>3690</v>
+        <v>2166</v>
       </c>
       <c r="K7" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="1">
-        <v>160687000000</v>
+        <v>161023000000</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="N7" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="Q7" t="s">
         <v>54</v>
@@ -3236,31 +3034,31 @@
         <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="U7" t="s">
         <v>55</v>
       </c>
       <c r="V7" s="2">
-        <v>42105</v>
+        <v>42110</v>
       </c>
       <c r="W7" s="2">
-        <v>42105</v>
+        <v>42110</v>
       </c>
       <c r="X7" s="2">
-        <v>42105</v>
+        <v>42110</v>
       </c>
       <c r="Z7" t="s">
         <v>56</v>
       </c>
       <c r="AC7" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="AD7" t="s">
         <v>58</v>
       </c>
       <c r="AF7" s="1">
-        <v>1243760000000</v>
+        <v>1246010000000</v>
       </c>
       <c r="AI7" t="s">
         <v>59</v>
@@ -3269,16 +3067,16 @@
         <v>59</v>
       </c>
       <c r="AM7" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="AO7" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="AP7" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AQ7">
-        <v>3690</v>
+        <v>2166</v>
       </c>
       <c r="AR7" t="s">
         <v>50</v>
@@ -3286,49 +3084,49 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>342043</v>
+        <v>347440</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8">
-        <v>421079449</v>
+        <v>220</v>
+      </c>
+      <c r="D8" s="1">
+        <v>610408000000</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="J8">
-        <v>3048</v>
+        <v>4129</v>
       </c>
       <c r="K8" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="1">
-        <v>160687000000</v>
+        <v>161023000000</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="Q8" t="s">
         <v>54</v>
@@ -3337,31 +3135,31 @@
         <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="U8" t="s">
         <v>55</v>
       </c>
       <c r="V8" s="2">
-        <v>42097</v>
+        <v>42109</v>
       </c>
       <c r="W8" s="2">
-        <v>42097</v>
+        <v>42109</v>
       </c>
       <c r="X8" s="2">
-        <v>42097</v>
+        <v>42109</v>
       </c>
       <c r="Z8" t="s">
         <v>56</v>
       </c>
       <c r="AC8" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="AD8" t="s">
         <v>58</v>
       </c>
       <c r="AF8" s="1">
-        <v>1240560000000</v>
+        <v>1245670000000</v>
       </c>
       <c r="AI8" t="s">
         <v>59</v>
@@ -3370,16 +3168,16 @@
         <v>59</v>
       </c>
       <c r="AM8" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="AO8" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="AP8" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="AQ8">
-        <v>3048</v>
+        <v>4129</v>
       </c>
       <c r="AR8" t="s">
         <v>50</v>
@@ -3387,31 +3185,31 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>347698</v>
+        <v>345244</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>414741413</v>
+        <v>433329178</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J9">
-        <v>2256</v>
+        <v>3690</v>
       </c>
       <c r="K9" t="s">
         <v>50</v>
@@ -3423,7 +3221,7 @@
         <v>101</v>
       </c>
       <c r="N9" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3444,25 +3242,25 @@
         <v>55</v>
       </c>
       <c r="V9" s="2">
-        <v>42110</v>
+        <v>42105</v>
       </c>
       <c r="W9" s="2">
-        <v>42110</v>
+        <v>42105</v>
       </c>
       <c r="X9" s="2">
-        <v>42110</v>
+        <v>42105</v>
       </c>
       <c r="Z9" t="s">
         <v>56</v>
       </c>
       <c r="AC9" t="s">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c r="AD9" t="s">
         <v>58</v>
       </c>
       <c r="AF9" s="1">
-        <v>1245920000000</v>
+        <v>1243760000000</v>
       </c>
       <c r="AI9" t="s">
         <v>59</v>
@@ -3471,16 +3269,16 @@
         <v>59</v>
       </c>
       <c r="AM9" t="s">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="AO9" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="AP9" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ9">
-        <v>2256</v>
+        <v>3690</v>
       </c>
       <c r="AR9" t="s">
         <v>50</v>
@@ -3488,31 +3286,31 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>347269</v>
+        <v>342043</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>264950319</v>
+        <v>421079449</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J10">
-        <v>2548</v>
+        <v>3048</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
@@ -3524,7 +3322,7 @@
         <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -3545,25 +3343,25 @@
         <v>55</v>
       </c>
       <c r="V10" s="2">
-        <v>42109</v>
+        <v>42097</v>
       </c>
       <c r="W10" s="2">
-        <v>42109</v>
+        <v>42097</v>
       </c>
       <c r="X10" s="2">
-        <v>42109</v>
+        <v>42097</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
       </c>
       <c r="AC10" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="AD10" t="s">
         <v>58</v>
       </c>
       <c r="AF10" s="1">
-        <v>1245610000000</v>
+        <v>1240560000000</v>
       </c>
       <c r="AI10" t="s">
         <v>59</v>
@@ -3572,16 +3370,16 @@
         <v>59</v>
       </c>
       <c r="AM10" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="AO10" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="AP10" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ10">
-        <v>2548</v>
+        <v>3048</v>
       </c>
       <c r="AR10" t="s">
         <v>50</v>
@@ -3589,31 +3387,31 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>347438</v>
+        <v>347698</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="D11">
-        <v>894744131</v>
+        <v>414741413</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="H11" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="I11" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="J11">
-        <v>6151</v>
+        <v>2256</v>
       </c>
       <c r="K11" t="s">
         <v>50</v>
@@ -3646,25 +3444,25 @@
         <v>55</v>
       </c>
       <c r="V11" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W11" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X11" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z11" t="s">
         <v>56</v>
       </c>
       <c r="AC11" t="s">
-        <v>218</v>
+        <v>313</v>
       </c>
       <c r="AD11" t="s">
         <v>58</v>
       </c>
       <c r="AF11" s="1">
-        <v>1245670000000</v>
+        <v>1245920000000</v>
       </c>
       <c r="AI11" t="s">
         <v>59</v>
@@ -3673,16 +3471,16 @@
         <v>59</v>
       </c>
       <c r="AM11" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="AO11" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="AP11" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="AQ11">
-        <v>6151</v>
+        <v>2256</v>
       </c>
       <c r="AR11" t="s">
         <v>50</v>
@@ -3690,31 +3488,31 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>347896</v>
+        <v>347269</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>154</v>
       </c>
       <c r="D12">
-        <v>426511280</v>
+        <v>264950319</v>
       </c>
       <c r="E12" t="s">
-        <v>378</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
       <c r="H12" t="s">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="J12">
-        <v>4300</v>
+        <v>2548</v>
       </c>
       <c r="K12" t="s">
         <v>50</v>
@@ -3747,25 +3545,25 @@
         <v>55</v>
       </c>
       <c r="V12" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W12" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X12" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z12" t="s">
         <v>56</v>
       </c>
       <c r="AC12" t="s">
-        <v>381</v>
+        <v>158</v>
       </c>
       <c r="AD12" t="s">
         <v>58</v>
       </c>
       <c r="AF12" s="1">
-        <v>1246060000000</v>
+        <v>1245610000000</v>
       </c>
       <c r="AI12" t="s">
         <v>59</v>
@@ -3774,16 +3572,16 @@
         <v>59</v>
       </c>
       <c r="AM12" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
       <c r="AO12" t="s">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="AP12" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AQ12">
-        <v>4300</v>
+        <v>2548</v>
       </c>
       <c r="AR12" t="s">
         <v>50</v>
@@ -3791,31 +3589,31 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>347448</v>
+        <v>347438</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D13">
-        <v>896523063</v>
+        <v>894744131</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="H13" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="I13" t="s">
         <v>217</v>
       </c>
       <c r="J13">
-        <v>6521</v>
+        <v>6151</v>
       </c>
       <c r="K13" t="s">
         <v>50</v>
@@ -3860,7 +3658,7 @@
         <v>56</v>
       </c>
       <c r="AC13" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="AD13" t="s">
         <v>58</v>
@@ -3875,16 +3673,16 @@
         <v>59</v>
       </c>
       <c r="AM13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AO13" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AP13" t="s">
         <v>217</v>
       </c>
       <c r="AQ13">
-        <v>6521</v>
+        <v>6151</v>
       </c>
       <c r="AR13" t="s">
         <v>50</v>
@@ -3892,31 +3690,31 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>347370</v>
+        <v>347896</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="D14">
-        <v>421414741</v>
+        <v>426511280</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>378</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="J14">
-        <v>2443</v>
+        <v>4300</v>
       </c>
       <c r="K14" t="s">
         <v>50</v>
@@ -3949,25 +3747,25 @@
         <v>55</v>
       </c>
       <c r="V14" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W14" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X14" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z14" t="s">
         <v>56</v>
       </c>
       <c r="AC14" t="s">
-        <v>205</v>
+        <v>381</v>
       </c>
       <c r="AD14" t="s">
         <v>58</v>
       </c>
       <c r="AF14" s="1">
-        <v>1245650000000</v>
+        <v>1246060000000</v>
       </c>
       <c r="AI14" t="s">
         <v>59</v>
@@ -3976,16 +3774,16 @@
         <v>59</v>
       </c>
       <c r="AM14" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="AO14" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="AP14" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AQ14">
-        <v>2443</v>
+        <v>4300</v>
       </c>
       <c r="AR14" t="s">
         <v>50</v>
@@ -3993,31 +3791,31 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>347994</v>
+        <v>347448</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>230</v>
       </c>
       <c r="D15">
-        <v>397497271</v>
+        <v>896523063</v>
       </c>
       <c r="E15" t="s">
-        <v>416</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>417</v>
+        <v>232</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="J15">
-        <v>3429</v>
+        <v>6521</v>
       </c>
       <c r="K15" t="s">
         <v>50</v>
@@ -4050,25 +3848,25 @@
         <v>55</v>
       </c>
       <c r="V15" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W15" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X15" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z15" t="s">
         <v>56</v>
       </c>
       <c r="AC15" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="AD15" t="s">
         <v>58</v>
       </c>
       <c r="AF15" s="1">
-        <v>1246100000000</v>
+        <v>1245670000000</v>
       </c>
       <c r="AI15" t="s">
         <v>59</v>
@@ -4077,16 +3875,16 @@
         <v>59</v>
       </c>
       <c r="AM15" t="s">
-        <v>417</v>
+        <v>232</v>
       </c>
       <c r="AO15" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="AP15" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="AQ15">
-        <v>3429</v>
+        <v>6521</v>
       </c>
       <c r="AR15" t="s">
         <v>50</v>
@@ -4094,31 +3892,31 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>347889</v>
+        <v>347370</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>201</v>
       </c>
       <c r="D16">
-        <v>447361173</v>
+        <v>421414741</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>373</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>374</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
         <v>110</v>
       </c>
       <c r="J16">
-        <v>2835</v>
+        <v>2443</v>
       </c>
       <c r="K16" t="s">
         <v>50</v>
@@ -4151,25 +3949,25 @@
         <v>55</v>
       </c>
       <c r="V16" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W16" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X16" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z16" t="s">
         <v>56</v>
       </c>
       <c r="AC16" t="s">
-        <v>375</v>
+        <v>205</v>
       </c>
       <c r="AD16" t="s">
         <v>58</v>
       </c>
       <c r="AF16" s="1">
-        <v>1246060000000</v>
+        <v>1245650000000</v>
       </c>
       <c r="AI16" t="s">
         <v>59</v>
@@ -4178,16 +3976,16 @@
         <v>59</v>
       </c>
       <c r="AM16" t="s">
-        <v>373</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s">
-        <v>374</v>
+        <v>204</v>
       </c>
       <c r="AP16" t="s">
         <v>110</v>
       </c>
       <c r="AQ16">
-        <v>2835</v>
+        <v>2443</v>
       </c>
       <c r="AR16" t="s">
         <v>50</v>
@@ -4195,31 +3993,31 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>347247</v>
+        <v>347994</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>415</v>
       </c>
       <c r="D17">
-        <v>288829175</v>
+        <v>397497271</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>416</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J17">
-        <v>2155</v>
+        <v>3429</v>
       </c>
       <c r="K17" t="s">
         <v>50</v>
@@ -4252,25 +4050,25 @@
         <v>55</v>
       </c>
       <c r="V17" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W17" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X17" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z17" t="s">
         <v>56</v>
       </c>
       <c r="AC17" t="s">
-        <v>152</v>
+        <v>418</v>
       </c>
       <c r="AD17" t="s">
         <v>58</v>
       </c>
       <c r="AF17" s="1">
-        <v>1245590000000</v>
+        <v>1246100000000</v>
       </c>
       <c r="AI17" t="s">
         <v>59</v>
@@ -4279,16 +4077,16 @@
         <v>59</v>
       </c>
       <c r="AM17" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
       <c r="AO17" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AP17" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ17">
-        <v>2155</v>
+        <v>3429</v>
       </c>
       <c r="AR17" t="s">
         <v>50</v>
@@ -4296,31 +4094,31 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>347384</v>
+        <v>347889</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="D18">
-        <v>297595254</v>
+        <v>447361173</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="H18" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="I18" t="s">
         <v>110</v>
       </c>
       <c r="J18">
-        <v>2196</v>
+        <v>2835</v>
       </c>
       <c r="K18" t="s">
         <v>50</v>
@@ -4353,25 +4151,25 @@
         <v>55</v>
       </c>
       <c r="V18" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W18" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X18" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z18" t="s">
         <v>56</v>
       </c>
       <c r="AC18" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="AD18" t="s">
         <v>58</v>
       </c>
       <c r="AF18" s="1">
-        <v>1245650000000</v>
+        <v>1246060000000</v>
       </c>
       <c r="AI18" t="s">
         <v>59</v>
@@ -4380,16 +4178,16 @@
         <v>59</v>
       </c>
       <c r="AM18" t="s">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="AO18" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="AP18" t="s">
         <v>110</v>
       </c>
       <c r="AQ18">
-        <v>2196</v>
+        <v>2835</v>
       </c>
       <c r="AR18" t="s">
         <v>50</v>
@@ -4397,31 +4195,31 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>348003</v>
+        <v>347247</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>147</v>
       </c>
       <c r="D19">
-        <v>411010789</v>
+        <v>288829175</v>
       </c>
       <c r="E19" t="s">
-        <v>428</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J19">
-        <v>3040</v>
+        <v>2155</v>
       </c>
       <c r="K19" t="s">
         <v>50</v>
@@ -4454,25 +4252,25 @@
         <v>55</v>
       </c>
       <c r="V19" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W19" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X19" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z19" t="s">
         <v>56</v>
       </c>
       <c r="AC19" t="s">
-        <v>431</v>
+        <v>152</v>
       </c>
       <c r="AD19" t="s">
         <v>58</v>
       </c>
       <c r="AF19" s="1">
-        <v>1246110000000</v>
+        <v>1245590000000</v>
       </c>
       <c r="AI19" t="s">
         <v>59</v>
@@ -4481,16 +4279,16 @@
         <v>59</v>
       </c>
       <c r="AM19" t="s">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="AO19" t="s">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="AP19" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AQ19">
-        <v>3040</v>
+        <v>2155</v>
       </c>
       <c r="AR19" t="s">
         <v>50</v>
@@ -4498,31 +4296,31 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>347999</v>
+        <v>347384</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>207</v>
       </c>
       <c r="D20">
-        <v>359642631</v>
+        <v>297595254</v>
       </c>
       <c r="E20" t="s">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>422</v>
+        <v>209</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J20">
-        <v>3139</v>
+        <v>2196</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
@@ -4537,7 +4335,7 @@
         <v>151</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>103</v>
@@ -4549,31 +4347,31 @@
         <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>424</v>
+        <v>103</v>
       </c>
       <c r="U20" t="s">
         <v>55</v>
       </c>
       <c r="V20" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W20" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X20" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z20" t="s">
         <v>56</v>
       </c>
       <c r="AC20" t="s">
-        <v>425</v>
+        <v>211</v>
       </c>
       <c r="AD20" t="s">
         <v>58</v>
       </c>
       <c r="AF20" s="1">
-        <v>1246100000000</v>
+        <v>1245650000000</v>
       </c>
       <c r="AI20" t="s">
         <v>59</v>
@@ -4582,16 +4380,16 @@
         <v>59</v>
       </c>
       <c r="AM20" t="s">
-        <v>422</v>
+        <v>209</v>
       </c>
       <c r="AO20" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="AP20" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AQ20">
-        <v>3139</v>
+        <v>2196</v>
       </c>
       <c r="AR20" t="s">
         <v>50</v>
@@ -4599,49 +4397,49 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>347954</v>
+        <v>348003</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D21">
-        <v>296010278</v>
+        <v>411010789</v>
       </c>
       <c r="E21" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="F21" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="H21" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J21">
-        <v>2170</v>
+        <v>3040</v>
       </c>
       <c r="K21" t="s">
         <v>50</v>
       </c>
       <c r="L21" s="1">
-        <v>150736000000</v>
+        <v>160687000000</v>
       </c>
       <c r="M21" t="s">
-        <v>410</v>
+        <v>101</v>
       </c>
       <c r="N21" t="s">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>412</v>
+        <v>103</v>
       </c>
       <c r="Q21" t="s">
         <v>54</v>
@@ -4650,7 +4448,7 @@
         <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>412</v>
+        <v>103</v>
       </c>
       <c r="U21" t="s">
         <v>55</v>
@@ -4668,13 +4466,13 @@
         <v>56</v>
       </c>
       <c r="AC21" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AD21" t="s">
         <v>58</v>
       </c>
       <c r="AF21" s="1">
-        <v>1239020000000</v>
+        <v>1246110000000</v>
       </c>
       <c r="AI21" t="s">
         <v>59</v>
@@ -4683,19 +4481,16 @@
         <v>59</v>
       </c>
       <c r="AM21" t="s">
-        <v>408</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="AO21" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="AP21" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ21">
-        <v>2170</v>
+        <v>3040</v>
       </c>
       <c r="AR21" t="s">
         <v>50</v>
@@ -4703,46 +4498,46 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>347585</v>
+        <v>347999</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>419</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="D22">
-        <v>248220563</v>
+        <v>359642631</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J22">
-        <v>2580</v>
+        <v>3139</v>
       </c>
       <c r="K22" t="s">
         <v>50</v>
       </c>
       <c r="L22" s="1">
-        <v>180986000000</v>
+        <v>160687000000</v>
       </c>
       <c r="M22" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="N22" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="s">
         <v>103</v>
@@ -4754,31 +4549,31 @@
         <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>103</v>
+        <v>424</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
       </c>
       <c r="V22" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W22" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X22" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z22" t="s">
         <v>56</v>
       </c>
       <c r="AC22" t="s">
-        <v>275</v>
+        <v>425</v>
       </c>
       <c r="AD22" t="s">
         <v>58</v>
       </c>
       <c r="AF22" s="1">
-        <v>1342190000000</v>
+        <v>1246100000000</v>
       </c>
       <c r="AI22" t="s">
         <v>59</v>
@@ -4787,16 +4582,16 @@
         <v>59</v>
       </c>
       <c r="AM22" t="s">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="AO22" t="s">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="AP22" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ22">
-        <v>2580</v>
+        <v>3139</v>
       </c>
       <c r="AR22" t="s">
         <v>50</v>
@@ -4804,49 +4599,49 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>347699</v>
+        <v>347954</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>405</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D23">
-        <v>439922211</v>
+        <v>296010278</v>
       </c>
       <c r="E23" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="H23" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="J23">
-        <v>4680</v>
+        <v>2170</v>
       </c>
       <c r="K23" t="s">
         <v>50</v>
       </c>
       <c r="L23" s="1">
-        <v>180986000000</v>
+        <v>150736000000</v>
       </c>
       <c r="M23" t="s">
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="N23" t="s">
-        <v>274</v>
+        <v>411</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>103</v>
+        <v>412</v>
       </c>
       <c r="Q23" t="s">
         <v>54</v>
@@ -4855,7 +4650,7 @@
         <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>103</v>
+        <v>412</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>
@@ -4873,13 +4668,13 @@
         <v>56</v>
       </c>
       <c r="AC23" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="AD23" t="s">
         <v>58</v>
       </c>
       <c r="AF23" s="1">
-        <v>1342390000000</v>
+        <v>1239020000000</v>
       </c>
       <c r="AI23" t="s">
         <v>59</v>
@@ -4888,16 +4683,19 @@
         <v>59</v>
       </c>
       <c r="AM23" t="s">
-        <v>317</v>
+        <v>408</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>409</v>
       </c>
       <c r="AO23" t="s">
-        <v>318</v>
+        <v>401</v>
       </c>
       <c r="AP23" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AQ23">
-        <v>4680</v>
+        <v>2170</v>
       </c>
       <c r="AR23" t="s">
         <v>50</v>
@@ -4905,49 +4703,49 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>344077</v>
+        <v>347585</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c r="D24">
-        <v>754465805</v>
+        <v>248220563</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="J24">
-        <v>4573</v>
+        <v>2580</v>
       </c>
       <c r="K24" t="s">
         <v>50</v>
       </c>
       <c r="L24" s="1">
-        <v>181673000000</v>
+        <v>180986000000</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="Q24" t="s">
         <v>54</v>
@@ -4956,34 +4754,31 @@
         <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="U24" t="s">
         <v>55</v>
       </c>
       <c r="V24" s="2">
-        <v>42102</v>
+        <v>42109</v>
       </c>
       <c r="W24" s="2">
-        <v>42102</v>
+        <v>42109</v>
       </c>
       <c r="X24" s="2">
-        <v>42102</v>
+        <v>42109</v>
       </c>
       <c r="Z24" t="s">
         <v>56</v>
       </c>
       <c r="AC24" t="s">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="AD24" t="s">
         <v>58</v>
       </c>
       <c r="AF24" s="1">
-        <v>1339140000000</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>124</v>
+        <v>1342190000000</v>
       </c>
       <c r="AI24" t="s">
         <v>59</v>
@@ -4992,16 +4787,16 @@
         <v>59</v>
       </c>
       <c r="AM24" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="AO24" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="AP24" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AQ24">
-        <v>4573</v>
+        <v>2580</v>
       </c>
       <c r="AR24" t="s">
         <v>50</v>
@@ -5009,49 +4804,49 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>348068</v>
+        <v>347699</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>467</v>
+        <v>315</v>
       </c>
       <c r="D25">
-        <v>468996247</v>
+        <v>439922211</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
-        <v>469</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
-        <v>470</v>
+        <v>318</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="J25">
-        <v>2206</v>
+        <v>4680</v>
       </c>
       <c r="K25" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="1">
-        <v>160991000000</v>
+        <v>180986000000</v>
       </c>
       <c r="M25" t="s">
-        <v>471</v>
+        <v>273</v>
       </c>
       <c r="N25" t="s">
-        <v>472</v>
+        <v>274</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="Q25" t="s">
         <v>54</v>
@@ -5060,7 +4855,7 @@
         <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="U25" t="s">
         <v>55</v>
@@ -5078,13 +4873,13 @@
         <v>56</v>
       </c>
       <c r="AC25" t="s">
-        <v>474</v>
+        <v>319</v>
       </c>
       <c r="AD25" t="s">
         <v>58</v>
       </c>
       <c r="AF25" s="1">
-        <v>1246130000000</v>
+        <v>1342390000000</v>
       </c>
       <c r="AI25" t="s">
         <v>59</v>
@@ -5093,16 +4888,16 @@
         <v>59</v>
       </c>
       <c r="AM25" t="s">
-        <v>469</v>
+        <v>317</v>
       </c>
       <c r="AO25" t="s">
-        <v>470</v>
+        <v>318</v>
       </c>
       <c r="AP25" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AQ25">
-        <v>2206</v>
+        <v>4680</v>
       </c>
       <c r="AR25" t="s">
         <v>50</v>
@@ -5110,49 +4905,49 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>347277</v>
+        <v>344077</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>404833609</v>
+        <v>754465805</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s">
         <v>83</v>
       </c>
       <c r="J26">
-        <v>4132</v>
+        <v>4573</v>
       </c>
       <c r="K26" t="s">
         <v>50</v>
       </c>
       <c r="L26" s="1">
-        <v>160758000000</v>
+        <v>181673000000</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="N26" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="Q26" t="s">
         <v>54</v>
@@ -5161,31 +4956,34 @@
         <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="U26" t="s">
         <v>55</v>
       </c>
       <c r="V26" s="2">
-        <v>42109</v>
+        <v>42102</v>
       </c>
       <c r="W26" s="2">
-        <v>42109</v>
+        <v>42102</v>
       </c>
       <c r="X26" s="2">
-        <v>42109</v>
+        <v>42102</v>
       </c>
       <c r="Z26" t="s">
         <v>56</v>
       </c>
       <c r="AC26" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="AD26" t="s">
         <v>58</v>
       </c>
       <c r="AF26" s="1">
-        <v>1245610000000</v>
+        <v>1339140000000</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>124</v>
       </c>
       <c r="AI26" t="s">
         <v>59</v>
@@ -5194,16 +4992,16 @@
         <v>59</v>
       </c>
       <c r="AM26" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="AO26" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="AP26" t="s">
         <v>83</v>
       </c>
       <c r="AQ26">
-        <v>4132</v>
+        <v>4573</v>
       </c>
       <c r="AR26" t="s">
         <v>50</v>
@@ -5211,49 +5009,49 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>347543</v>
+        <v>348068</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>466</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>467</v>
       </c>
       <c r="D27">
-        <v>437262243</v>
+        <v>468996247</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>468</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>469</v>
       </c>
       <c r="H27" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J27">
-        <v>3350</v>
+        <v>2206</v>
       </c>
       <c r="K27" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="1">
-        <v>181699000000</v>
+        <v>160991000000</v>
       </c>
       <c r="M27" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
       <c r="N27" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>264</v>
+        <v>473</v>
       </c>
       <c r="Q27" t="s">
         <v>54</v>
@@ -5262,34 +5060,31 @@
         <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="U27" t="s">
         <v>55</v>
       </c>
       <c r="V27" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W27" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X27" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z27" t="s">
         <v>56</v>
       </c>
       <c r="AC27" t="s">
-        <v>266</v>
+        <v>474</v>
       </c>
       <c r="AD27" t="s">
         <v>58</v>
       </c>
       <c r="AF27" s="1">
-        <v>1342180000000</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>267</v>
+        <v>1246130000000</v>
       </c>
       <c r="AI27" t="s">
         <v>59</v>
@@ -5298,16 +5093,16 @@
         <v>59</v>
       </c>
       <c r="AM27" t="s">
-        <v>260</v>
+        <v>469</v>
       </c>
       <c r="AO27" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
       <c r="AP27" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AQ27">
-        <v>3350</v>
+        <v>2206</v>
       </c>
       <c r="AR27" t="s">
         <v>50</v>
@@ -5315,88 +5110,82 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>348095</v>
+        <v>347277</v>
       </c>
       <c r="B28" t="s">
-        <v>475</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>476</v>
+        <v>160</v>
       </c>
       <c r="D28">
-        <v>400273986</v>
+        <v>404833609</v>
       </c>
       <c r="E28" t="s">
-        <v>477</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>509</v>
-      </c>
-      <c r="G28" t="s">
-        <v>479</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>480</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="J28">
-        <v>6111</v>
+        <v>4132</v>
       </c>
       <c r="K28" t="s">
         <v>50</v>
       </c>
       <c r="L28" s="1">
-        <v>161406000000</v>
+        <v>160758000000</v>
       </c>
       <c r="M28" t="s">
-        <v>481</v>
+        <v>164</v>
       </c>
       <c r="N28" t="s">
-        <v>482</v>
+        <v>165</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>483</v>
+        <v>166</v>
       </c>
       <c r="Q28" t="s">
-        <v>484</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
         <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>485</v>
+        <v>166</v>
       </c>
       <c r="U28" t="s">
         <v>55</v>
       </c>
       <c r="V28" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W28" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X28" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z28" t="s">
         <v>56</v>
       </c>
       <c r="AC28" t="s">
-        <v>486</v>
+        <v>167</v>
       </c>
       <c r="AD28" t="s">
-        <v>487</v>
+        <v>58</v>
       </c>
       <c r="AF28" s="1">
-        <v>1246140000000</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>488</v>
+        <v>1245610000000</v>
       </c>
       <c r="AI28" t="s">
         <v>59</v>
@@ -5405,19 +5194,16 @@
         <v>59</v>
       </c>
       <c r="AM28" t="s">
-        <v>478</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>479</v>
+        <v>162</v>
       </c>
       <c r="AO28" t="s">
-        <v>480</v>
+        <v>163</v>
       </c>
       <c r="AP28" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="AQ28">
-        <v>6111</v>
+        <v>4132</v>
       </c>
       <c r="AR28" t="s">
         <v>50</v>
@@ -5425,46 +5211,49 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>343964</v>
+        <v>347543</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>258</v>
+      </c>
+      <c r="D29">
+        <v>437262243</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J29">
-        <v>2480</v>
+        <v>3350</v>
       </c>
       <c r="K29" t="s">
         <v>50</v>
       </c>
       <c r="L29" s="1">
-        <v>150831000000</v>
+        <v>181699000000</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="O29">
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="Q29" t="s">
         <v>54</v>
@@ -5473,28 +5262,34 @@
         <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="U29" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="V29" s="2">
-        <v>42102</v>
+        <v>42109</v>
       </c>
       <c r="W29" s="2">
-        <v>42102</v>
+        <v>42109</v>
       </c>
       <c r="X29" s="2">
-        <v>42104</v>
+        <v>42109</v>
       </c>
       <c r="Z29" t="s">
         <v>56</v>
       </c>
+      <c r="AC29" t="s">
+        <v>266</v>
+      </c>
       <c r="AD29" t="s">
         <v>58</v>
       </c>
       <c r="AF29" s="1">
-        <v>1235430000000</v>
+        <v>1342180000000</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>267</v>
       </c>
       <c r="AI29" t="s">
         <v>59</v>
@@ -5503,16 +5298,16 @@
         <v>59</v>
       </c>
       <c r="AM29" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="AO29" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="AP29" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ29">
-        <v>2480</v>
+        <v>3350</v>
       </c>
       <c r="AR29" t="s">
         <v>50</v>
@@ -5520,61 +5315,61 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>348056</v>
+        <v>348095</v>
       </c>
       <c r="B30" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="C30" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="D30">
-        <v>410538009</v>
+        <v>400273986</v>
       </c>
       <c r="E30" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="F30" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="G30" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="H30" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="J30">
-        <v>4216</v>
+        <v>6111</v>
       </c>
       <c r="K30" t="s">
         <v>50</v>
       </c>
       <c r="L30" s="1">
-        <v>181146000000</v>
+        <v>161406000000</v>
       </c>
       <c r="M30" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="N30" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="Q30" t="s">
-        <v>54</v>
+        <v>484</v>
       </c>
       <c r="R30" t="s">
         <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="U30" t="s">
         <v>55</v>
@@ -5592,13 +5387,16 @@
         <v>56</v>
       </c>
       <c r="AC30" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="AD30" t="s">
-        <v>58</v>
+        <v>487</v>
       </c>
       <c r="AF30" s="1">
-        <v>1342590000000</v>
+        <v>1246140000000</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>488</v>
       </c>
       <c r="AI30" t="s">
         <v>59</v>
@@ -5607,19 +5405,19 @@
         <v>59</v>
       </c>
       <c r="AM30" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="AN30" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AO30" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="AP30" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="AQ30">
-        <v>4216</v>
+        <v>6111</v>
       </c>
       <c r="AR30" t="s">
         <v>50</v>
@@ -5627,49 +5425,46 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>335560</v>
+        <v>343964</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31">
-        <v>431568788</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J31">
-        <v>3047</v>
+        <v>2480</v>
       </c>
       <c r="K31" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="1">
-        <v>181463000000</v>
+        <v>150831000000</v>
       </c>
       <c r="M31" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="Q31" t="s">
         <v>54</v>
@@ -5678,34 +5473,28 @@
         <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="V31" s="2">
-        <v>42081</v>
+        <v>42102</v>
       </c>
       <c r="W31" s="2">
-        <v>42081</v>
+        <v>42102</v>
       </c>
       <c r="X31" s="2">
-        <v>42081</v>
+        <v>42104</v>
       </c>
       <c r="Z31" t="s">
         <v>56</v>
       </c>
-      <c r="AA31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>69</v>
-      </c>
       <c r="AD31" t="s">
         <v>58</v>
       </c>
       <c r="AF31" s="1">
-        <v>1329860000000</v>
+        <v>1235430000000</v>
       </c>
       <c r="AI31" t="s">
         <v>59</v>
@@ -5714,16 +5503,16 @@
         <v>59</v>
       </c>
       <c r="AM31" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="AO31" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="AP31" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AQ31">
-        <v>3047</v>
+        <v>2480</v>
       </c>
       <c r="AR31" t="s">
         <v>50</v>
@@ -5731,49 +5520,52 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>337058</v>
+        <v>348056</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>451</v>
       </c>
       <c r="D32">
-        <v>399311606</v>
+        <v>410538009</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>452</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>453</v>
+      </c>
+      <c r="G32" t="s">
+        <v>454</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>455</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="J32">
-        <v>3029</v>
+        <v>4216</v>
       </c>
       <c r="K32" t="s">
         <v>50</v>
       </c>
       <c r="L32" s="1">
-        <v>181463000000</v>
+        <v>181146000000</v>
       </c>
       <c r="M32" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="N32" t="s">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>67</v>
+        <v>458</v>
       </c>
       <c r="Q32" t="s">
         <v>54</v>
@@ -5782,31 +5574,31 @@
         <v>54</v>
       </c>
       <c r="T32" t="s">
-        <v>67</v>
+        <v>458</v>
       </c>
       <c r="U32" t="s">
         <v>55</v>
       </c>
       <c r="V32" s="2">
-        <v>42085</v>
+        <v>42110</v>
       </c>
       <c r="W32" s="2">
-        <v>42085</v>
+        <v>42110</v>
       </c>
       <c r="X32" s="2">
-        <v>42085</v>
+        <v>42110</v>
       </c>
       <c r="Z32" t="s">
         <v>56</v>
       </c>
       <c r="AC32" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="AD32" t="s">
         <v>58</v>
       </c>
       <c r="AF32" s="1">
-        <v>1331600000000</v>
+        <v>1342590000000</v>
       </c>
       <c r="AI32" t="s">
         <v>59</v>
@@ -5815,19 +5607,19 @@
         <v>59</v>
       </c>
       <c r="AM32" t="s">
-        <v>73</v>
+        <v>453</v>
       </c>
       <c r="AN32" t="s">
-        <v>74</v>
+        <v>454</v>
       </c>
       <c r="AO32" t="s">
-        <v>75</v>
+        <v>455</v>
       </c>
       <c r="AP32" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="AQ32">
-        <v>3029</v>
+        <v>4216</v>
       </c>
       <c r="AR32" t="s">
         <v>50</v>
@@ -5835,49 +5627,49 @@
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>339561</v>
+        <v>335560</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>412187301</v>
+        <v>431568788</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
-        <v>510</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
         <v>49</v>
       </c>
       <c r="J33">
-        <v>3061</v>
+        <v>3047</v>
       </c>
       <c r="K33" t="s">
         <v>50</v>
       </c>
       <c r="L33" s="1">
-        <v>181021000000</v>
+        <v>181463000000</v>
       </c>
       <c r="M33" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="N33" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="Q33" t="s">
         <v>54</v>
@@ -5886,31 +5678,34 @@
         <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="U33" t="s">
         <v>55</v>
       </c>
       <c r="V33" s="2">
-        <v>42091</v>
+        <v>42081</v>
       </c>
       <c r="W33" s="2">
-        <v>42091</v>
+        <v>42081</v>
       </c>
       <c r="X33" s="2">
-        <v>42091</v>
+        <v>42081</v>
       </c>
       <c r="Z33" t="s">
         <v>56</v>
       </c>
+      <c r="AA33" t="s">
+        <v>68</v>
+      </c>
       <c r="AC33" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AD33" t="s">
         <v>58</v>
       </c>
       <c r="AF33" s="1">
-        <v>1334260000000</v>
+        <v>1329860000000</v>
       </c>
       <c r="AI33" t="s">
         <v>59</v>
@@ -5919,19 +5714,16 @@
         <v>59</v>
       </c>
       <c r="AM33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="AO33" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AP33" t="s">
         <v>49</v>
       </c>
       <c r="AQ33">
-        <v>3061</v>
+        <v>3047</v>
       </c>
       <c r="AR33" t="s">
         <v>50</v>
@@ -5939,49 +5731,49 @@
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>347689</v>
+        <v>337058</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>418175337</v>
+        <v>399311606</v>
       </c>
       <c r="E34" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="J34">
-        <v>4183</v>
+        <v>3029</v>
       </c>
       <c r="K34" t="s">
         <v>50</v>
       </c>
       <c r="L34" s="1">
-        <v>161151000000</v>
+        <v>181463000000</v>
       </c>
       <c r="M34" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="Q34" t="s">
         <v>54</v>
@@ -5990,31 +5782,31 @@
         <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
       </c>
       <c r="V34" s="2">
-        <v>42110</v>
+        <v>42085</v>
       </c>
       <c r="W34" s="2">
-        <v>42110</v>
+        <v>42085</v>
       </c>
       <c r="X34" s="2">
-        <v>42110</v>
+        <v>42085</v>
       </c>
       <c r="Z34" t="s">
         <v>56</v>
       </c>
       <c r="AC34" t="s">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s">
         <v>58</v>
       </c>
       <c r="AF34" s="1">
-        <v>1245850000000</v>
+        <v>1331600000000</v>
       </c>
       <c r="AI34" t="s">
         <v>59</v>
@@ -6023,16 +5815,19 @@
         <v>59</v>
       </c>
       <c r="AM34" t="s">
-        <v>297</v>
+        <v>73</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>74</v>
       </c>
       <c r="AO34" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="AP34" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AQ34">
-        <v>4183</v>
+        <v>3029</v>
       </c>
       <c r="AR34" t="s">
         <v>50</v>
@@ -6040,49 +5835,49 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>347621</v>
+        <v>339561</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="D35">
-        <v>422920676</v>
+        <v>412187301</v>
       </c>
       <c r="E35" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="I35" t="s">
         <v>49</v>
       </c>
       <c r="J35">
-        <v>3042</v>
+        <v>3061</v>
       </c>
       <c r="K35" t="s">
         <v>50</v>
       </c>
       <c r="L35" s="1">
-        <v>180903000000</v>
+        <v>181021000000</v>
       </c>
       <c r="M35" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="N35" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="Q35" t="s">
         <v>54</v>
@@ -6091,31 +5886,31 @@
         <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
       </c>
       <c r="V35" s="2">
-        <v>42109</v>
+        <v>42091</v>
       </c>
       <c r="W35" s="2">
-        <v>42109</v>
+        <v>42091</v>
       </c>
       <c r="X35" s="2">
-        <v>42109</v>
+        <v>42091</v>
       </c>
       <c r="Z35" t="s">
         <v>56</v>
       </c>
       <c r="AC35" t="s">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="AD35" t="s">
         <v>58</v>
       </c>
       <c r="AF35" s="1">
-        <v>1342200000000</v>
+        <v>1334260000000</v>
       </c>
       <c r="AI35" t="s">
         <v>59</v>
@@ -6124,16 +5919,19 @@
         <v>59</v>
       </c>
       <c r="AM35" t="s">
-        <v>291</v>
+        <v>91</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>92</v>
       </c>
       <c r="AO35" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AP35" t="s">
         <v>49</v>
       </c>
       <c r="AQ35">
-        <v>3042</v>
+        <v>3061</v>
       </c>
       <c r="AR35" t="s">
         <v>50</v>
@@ -6141,52 +5939,49 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>347337</v>
+        <v>347689</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="D36">
-        <v>883863995</v>
+        <v>418175337</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="H36" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="J36">
-        <v>5167</v>
+        <v>4183</v>
       </c>
       <c r="K36" t="s">
         <v>50</v>
       </c>
       <c r="L36" s="1">
-        <v>180903000000</v>
+        <v>161151000000</v>
       </c>
       <c r="M36" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="Q36" t="s">
         <v>54</v>
@@ -6195,31 +5990,31 @@
         <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
       </c>
       <c r="V36" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W36" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X36" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z36" t="s">
         <v>56</v>
       </c>
       <c r="AC36" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="AD36" t="s">
         <v>58</v>
       </c>
       <c r="AF36" s="1">
-        <v>1342110000000</v>
+        <v>1245850000000</v>
       </c>
       <c r="AI36" t="s">
         <v>59</v>
@@ -6228,19 +6023,16 @@
         <v>59</v>
       </c>
       <c r="AM36" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="AO36" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="AP36" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="AQ36">
-        <v>5167</v>
+        <v>4183</v>
       </c>
       <c r="AR36" t="s">
         <v>50</v>
@@ -6248,31 +6040,31 @@
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>347935</v>
+        <v>347621</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="D37">
-        <v>437105921</v>
+        <v>422920676</v>
       </c>
       <c r="E37" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F37" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="H37" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="I37" t="s">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="J37">
-        <v>7140</v>
+        <v>3042</v>
       </c>
       <c r="K37" t="s">
         <v>50</v>
@@ -6305,25 +6097,25 @@
         <v>55</v>
       </c>
       <c r="V37" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W37" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X37" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z37" t="s">
         <v>56</v>
       </c>
       <c r="AC37" t="s">
-        <v>394</v>
+        <v>293</v>
       </c>
       <c r="AD37" t="s">
         <v>58</v>
       </c>
       <c r="AF37" s="1">
-        <v>1342540000000</v>
+        <v>1342200000000</v>
       </c>
       <c r="AI37" t="s">
         <v>59</v>
@@ -6332,16 +6124,16 @@
         <v>59</v>
       </c>
       <c r="AM37" t="s">
-        <v>395</v>
+        <v>291</v>
       </c>
       <c r="AO37" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="AP37" t="s">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="AQ37">
-        <v>7140</v>
+        <v>3042</v>
       </c>
       <c r="AR37" t="s">
         <v>50</v>
@@ -6349,31 +6141,34 @@
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>348046</v>
+        <v>347337</v>
       </c>
       <c r="B38" t="s">
-        <v>444</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>445</v>
+        <v>187</v>
       </c>
       <c r="D38">
-        <v>423857291</v>
+        <v>883863995</v>
       </c>
       <c r="E38" t="s">
-        <v>446</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>447</v>
+        <v>189</v>
+      </c>
+      <c r="G38" t="s">
+        <v>190</v>
       </c>
       <c r="H38" t="s">
-        <v>448</v>
+        <v>191</v>
       </c>
       <c r="I38" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="J38">
-        <v>2830</v>
+        <v>5167</v>
       </c>
       <c r="K38" t="s">
         <v>50</v>
@@ -6406,25 +6201,25 @@
         <v>55</v>
       </c>
       <c r="V38" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W38" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X38" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z38" t="s">
         <v>56</v>
       </c>
       <c r="AC38" t="s">
-        <v>449</v>
+        <v>193</v>
       </c>
       <c r="AD38" t="s">
         <v>58</v>
       </c>
       <c r="AF38" s="1">
-        <v>1342590000000</v>
+        <v>1342110000000</v>
       </c>
       <c r="AI38" t="s">
         <v>59</v>
@@ -6433,16 +6228,19 @@
         <v>59</v>
       </c>
       <c r="AM38" t="s">
-        <v>447</v>
+        <v>189</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>190</v>
       </c>
       <c r="AO38" t="s">
-        <v>448</v>
+        <v>191</v>
       </c>
       <c r="AP38" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="AQ38">
-        <v>2830</v>
+        <v>5167</v>
       </c>
       <c r="AR38" t="s">
         <v>50</v>
@@ -6450,31 +6248,31 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>347600</v>
+        <v>347935</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="D39">
-        <v>432861499</v>
+        <v>437105921</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="H39" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>393</v>
       </c>
       <c r="J39">
-        <v>3550</v>
+        <v>7140</v>
       </c>
       <c r="K39" t="s">
         <v>50</v>
@@ -6507,25 +6305,25 @@
         <v>55</v>
       </c>
       <c r="V39" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W39" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X39" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z39" t="s">
         <v>56</v>
       </c>
       <c r="AC39" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="AD39" t="s">
         <v>58</v>
       </c>
       <c r="AF39" s="1">
-        <v>1342200000000</v>
+        <v>1342540000000</v>
       </c>
       <c r="AI39" t="s">
         <v>59</v>
@@ -6534,16 +6332,16 @@
         <v>59</v>
       </c>
       <c r="AM39" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
       <c r="AO39" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="AP39" t="s">
-        <v>49</v>
+        <v>393</v>
       </c>
       <c r="AQ39">
-        <v>3550</v>
+        <v>7140</v>
       </c>
       <c r="AR39" t="s">
         <v>50</v>
@@ -6551,31 +6349,31 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>347778</v>
+        <v>348046</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="C40" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="D40">
-        <v>419313076</v>
+        <v>423857291</v>
       </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="F40" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="H40" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J40">
-        <v>3930</v>
+        <v>2830</v>
       </c>
       <c r="K40" t="s">
         <v>50</v>
@@ -6620,13 +6418,13 @@
         <v>56</v>
       </c>
       <c r="AC40" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="AD40" t="s">
         <v>58</v>
       </c>
       <c r="AF40" s="1">
-        <v>1342480000000</v>
+        <v>1342590000000</v>
       </c>
       <c r="AI40" t="s">
         <v>59</v>
@@ -6634,20 +6432,17 @@
       <c r="AK40" t="s">
         <v>59</v>
       </c>
-      <c r="AM40">
-        <v>83</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>353</v>
+      <c r="AM40" t="s">
+        <v>447</v>
       </c>
       <c r="AO40" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="AP40" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AQ40">
-        <v>3930</v>
+        <v>2830</v>
       </c>
       <c r="AR40" t="s">
         <v>50</v>
@@ -6655,31 +6450,31 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>347327</v>
+        <v>347600</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="D41">
-        <v>428940355</v>
+        <v>432861499</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="I41" t="s">
         <v>49</v>
       </c>
       <c r="J41">
-        <v>3619</v>
+        <v>3550</v>
       </c>
       <c r="K41" t="s">
         <v>50</v>
@@ -6724,13 +6519,13 @@
         <v>56</v>
       </c>
       <c r="AC41" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="AD41" t="s">
         <v>58</v>
       </c>
       <c r="AF41" s="1">
-        <v>1342100000000</v>
+        <v>1342200000000</v>
       </c>
       <c r="AI41" t="s">
         <v>59</v>
@@ -6739,16 +6534,16 @@
         <v>59</v>
       </c>
       <c r="AM41" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="AO41" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="AP41" t="s">
         <v>49</v>
       </c>
       <c r="AQ41">
-        <v>3619</v>
+        <v>3550</v>
       </c>
       <c r="AR41" t="s">
         <v>50</v>
@@ -6756,31 +6551,31 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>347900</v>
+        <v>347778</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="D42">
-        <v>354463959</v>
+        <v>419313076</v>
       </c>
       <c r="E42" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="F42" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
       <c r="H42" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="I42" t="s">
         <v>49</v>
       </c>
       <c r="J42">
-        <v>3556</v>
+        <v>3930</v>
       </c>
       <c r="K42" t="s">
         <v>50</v>
@@ -6825,13 +6620,13 @@
         <v>56</v>
       </c>
       <c r="AC42" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AD42" t="s">
         <v>58</v>
       </c>
       <c r="AF42" s="1">
-        <v>1342530000000</v>
+        <v>1342480000000</v>
       </c>
       <c r="AI42" t="s">
         <v>59</v>
@@ -6839,17 +6634,20 @@
       <c r="AK42" t="s">
         <v>59</v>
       </c>
-      <c r="AM42" t="s">
-        <v>385</v>
+      <c r="AM42">
+        <v>83</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>353</v>
       </c>
       <c r="AO42" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AP42" t="s">
         <v>49</v>
       </c>
       <c r="AQ42">
-        <v>3556</v>
+        <v>3930</v>
       </c>
       <c r="AR42" t="s">
         <v>50</v>
@@ -6857,31 +6655,31 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>347348</v>
+        <v>347327</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D43">
-        <v>732088239</v>
+        <v>428940355</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="J43">
-        <v>4655</v>
+        <v>3619</v>
       </c>
       <c r="K43" t="s">
         <v>50</v>
@@ -6925,17 +6723,14 @@
       <c r="Z43" t="s">
         <v>56</v>
       </c>
-      <c r="AA43" t="s">
-        <v>68</v>
-      </c>
       <c r="AC43" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AD43" t="s">
         <v>58</v>
       </c>
       <c r="AF43" s="1">
-        <v>1342110000000</v>
+        <v>1342100000000</v>
       </c>
       <c r="AI43" t="s">
         <v>59</v>
@@ -6944,16 +6739,16 @@
         <v>59</v>
       </c>
       <c r="AM43" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AO43" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AP43" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AQ43">
-        <v>4655</v>
+        <v>3619</v>
       </c>
       <c r="AR43" t="s">
         <v>50</v>
@@ -6961,49 +6756,49 @@
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>348120</v>
+        <v>347900</v>
       </c>
       <c r="B44" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="C44" t="s">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="D44">
-        <v>891691250</v>
+        <v>354463959</v>
       </c>
       <c r="E44" t="s">
-        <v>491</v>
+        <v>384</v>
       </c>
       <c r="F44" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
       <c r="H44" t="s">
-        <v>493</v>
+        <v>386</v>
       </c>
       <c r="I44" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="J44">
-        <v>6743</v>
+        <v>3556</v>
       </c>
       <c r="K44" t="s">
         <v>50</v>
       </c>
       <c r="L44" s="1">
-        <v>160707000000</v>
+        <v>180903000000</v>
       </c>
       <c r="M44" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="N44" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="O44">
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="Q44" t="s">
         <v>54</v>
@@ -7012,7 +6807,7 @@
         <v>54</v>
       </c>
       <c r="T44" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="U44" t="s">
         <v>55</v>
@@ -7029,14 +6824,14 @@
       <c r="Z44" t="s">
         <v>56</v>
       </c>
-      <c r="AC44" s="1">
-        <v>5.66399E+16</v>
+      <c r="AC44" t="s">
+        <v>387</v>
       </c>
       <c r="AD44" t="s">
         <v>58</v>
       </c>
       <c r="AF44" s="1">
-        <v>1246150000000</v>
+        <v>1342530000000</v>
       </c>
       <c r="AI44" t="s">
         <v>59</v>
@@ -7045,16 +6840,16 @@
         <v>59</v>
       </c>
       <c r="AM44" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
       <c r="AO44" t="s">
-        <v>493</v>
+        <v>386</v>
       </c>
       <c r="AP44" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="AQ44">
-        <v>6743</v>
+        <v>3556</v>
       </c>
       <c r="AR44" t="s">
         <v>50</v>
@@ -7062,49 +6857,49 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>347192</v>
+        <v>347348</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="D45">
-        <v>352822967</v>
+        <v>732088239</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H45" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="J45">
-        <v>3212</v>
+        <v>4655</v>
       </c>
       <c r="K45" t="s">
         <v>50</v>
       </c>
       <c r="L45" s="1">
-        <v>160707000000</v>
+        <v>180903000000</v>
       </c>
       <c r="M45" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="N45" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="Q45" t="s">
         <v>54</v>
@@ -7113,7 +6908,7 @@
         <v>54</v>
       </c>
       <c r="T45" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="U45" t="s">
         <v>55</v>
@@ -7130,14 +6925,17 @@
       <c r="Z45" t="s">
         <v>56</v>
       </c>
+      <c r="AA45" t="s">
+        <v>68</v>
+      </c>
       <c r="AC45" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="AD45" t="s">
         <v>58</v>
       </c>
       <c r="AF45" s="1">
-        <v>1245560000000</v>
+        <v>1342110000000</v>
       </c>
       <c r="AI45" t="s">
         <v>59</v>
@@ -7146,16 +6944,16 @@
         <v>59</v>
       </c>
       <c r="AM45" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="AO45" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="AP45" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="AQ45">
-        <v>3212</v>
+        <v>4655</v>
       </c>
       <c r="AR45" t="s">
         <v>50</v>
@@ -7163,31 +6961,31 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>347696</v>
+        <v>348120</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>489</v>
       </c>
       <c r="C46" t="s">
-        <v>303</v>
+        <v>490</v>
       </c>
       <c r="D46">
-        <v>410013535</v>
+        <v>891691250</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>491</v>
       </c>
       <c r="F46" t="s">
-        <v>305</v>
+        <v>492</v>
       </c>
       <c r="H46" t="s">
-        <v>306</v>
+        <v>493</v>
       </c>
       <c r="I46" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J46">
-        <v>5113</v>
+        <v>6743</v>
       </c>
       <c r="K46" t="s">
         <v>50</v>
@@ -7231,14 +7029,14 @@
       <c r="Z46" t="s">
         <v>56</v>
       </c>
-      <c r="AC46" t="s">
-        <v>307</v>
+      <c r="AC46" s="1">
+        <v>5.66399E+16</v>
       </c>
       <c r="AD46" t="s">
         <v>58</v>
       </c>
       <c r="AF46" s="1">
-        <v>1245910000000</v>
+        <v>1246150000000</v>
       </c>
       <c r="AI46" t="s">
         <v>59</v>
@@ -7247,16 +7045,16 @@
         <v>59</v>
       </c>
       <c r="AM46" t="s">
-        <v>305</v>
+        <v>492</v>
       </c>
       <c r="AO46" t="s">
-        <v>306</v>
+        <v>493</v>
       </c>
       <c r="AP46" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="AQ46">
-        <v>5113</v>
+        <v>6743</v>
       </c>
       <c r="AR46" t="s">
         <v>50</v>
@@ -7264,31 +7062,31 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>347218</v>
+        <v>347192</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D47">
-        <v>6104197850</v>
+        <v>352822967</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="J47">
-        <v>4680</v>
+        <v>3212</v>
       </c>
       <c r="K47" t="s">
         <v>50</v>
@@ -7333,13 +7131,13 @@
         <v>56</v>
       </c>
       <c r="AC47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AD47" t="s">
         <v>58</v>
       </c>
       <c r="AF47" s="1">
-        <v>1245580000000</v>
+        <v>1245560000000</v>
       </c>
       <c r="AI47" t="s">
         <v>59</v>
@@ -7348,16 +7146,16 @@
         <v>59</v>
       </c>
       <c r="AM47" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AO47" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AP47" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="AQ47">
-        <v>4680</v>
+        <v>3212</v>
       </c>
       <c r="AR47" t="s">
         <v>50</v>
@@ -7365,31 +7163,31 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>347702</v>
+        <v>347696</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D48">
-        <v>747707649</v>
+        <v>410013535</v>
       </c>
       <c r="E48" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F48" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="H48" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="J48">
-        <v>4816</v>
+        <v>5113</v>
       </c>
       <c r="K48" t="s">
         <v>50</v>
@@ -7404,7 +7202,7 @@
         <v>138</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="s">
         <v>86</v>
@@ -7416,7 +7214,7 @@
         <v>54</v>
       </c>
       <c r="T48" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="U48" t="s">
         <v>55</v>
@@ -7434,13 +7232,13 @@
         <v>56</v>
       </c>
       <c r="AC48" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="AD48" t="s">
         <v>58</v>
       </c>
       <c r="AF48" s="1">
-        <v>1245940000000</v>
+        <v>1245910000000</v>
       </c>
       <c r="AI48" t="s">
         <v>59</v>
@@ -7449,16 +7247,16 @@
         <v>59</v>
       </c>
       <c r="AM48" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AO48" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="AP48" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="AQ48">
-        <v>4816</v>
+        <v>5113</v>
       </c>
       <c r="AR48" t="s">
         <v>50</v>
@@ -7466,31 +7264,31 @@
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>347500</v>
+        <v>347218</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="D49">
-        <v>434010884</v>
+        <v>6104197850</v>
       </c>
       <c r="E49" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="H49" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="I49" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="J49">
-        <v>5117</v>
+        <v>4680</v>
       </c>
       <c r="K49" t="s">
         <v>50</v>
@@ -7535,13 +7333,13 @@
         <v>56</v>
       </c>
       <c r="AC49" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="AD49" t="s">
         <v>58</v>
       </c>
       <c r="AF49" s="1">
-        <v>1245700000000</v>
+        <v>1245580000000</v>
       </c>
       <c r="AI49" t="s">
         <v>59</v>
@@ -7550,16 +7348,16 @@
         <v>59</v>
       </c>
       <c r="AM49" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="AO49" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="AP49" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="AQ49">
-        <v>5117</v>
+        <v>4680</v>
       </c>
       <c r="AR49" t="s">
         <v>50</v>
@@ -7567,31 +7365,31 @@
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>348063</v>
+        <v>347702</v>
       </c>
       <c r="B50" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>321</v>
       </c>
       <c r="D50">
-        <v>886322446</v>
+        <v>747707649</v>
       </c>
       <c r="E50" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="F50" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="H50" t="s">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="I50" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="J50">
-        <v>5540</v>
+        <v>4816</v>
       </c>
       <c r="K50" t="s">
         <v>50</v>
@@ -7606,7 +7404,7 @@
         <v>138</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="s">
         <v>86</v>
@@ -7618,7 +7416,7 @@
         <v>54</v>
       </c>
       <c r="T50" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="U50" t="s">
         <v>55</v>
@@ -7636,13 +7434,13 @@
         <v>56</v>
       </c>
       <c r="AC50" t="s">
-        <v>465</v>
+        <v>326</v>
       </c>
       <c r="AD50" t="s">
         <v>58</v>
       </c>
       <c r="AF50" s="1">
-        <v>1246130000000</v>
+        <v>1245940000000</v>
       </c>
       <c r="AI50" t="s">
         <v>59</v>
@@ -7651,16 +7449,16 @@
         <v>59</v>
       </c>
       <c r="AM50" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="AO50" t="s">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="AP50" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="AQ50">
-        <v>5540</v>
+        <v>4816</v>
       </c>
       <c r="AR50" t="s">
         <v>50</v>
@@ -7668,46 +7466,49 @@
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>347881</v>
+        <v>347500</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>365</v>
+        <v>244</v>
+      </c>
+      <c r="D51">
+        <v>434010884</v>
       </c>
       <c r="E51" t="s">
-        <v>366</v>
+        <v>245</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="J51">
-        <v>2322</v>
+        <v>5117</v>
       </c>
       <c r="K51" t="s">
         <v>50</v>
       </c>
       <c r="L51" s="1">
-        <v>181089000000</v>
+        <v>160707000000</v>
       </c>
       <c r="M51" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="N51" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="Q51" t="s">
         <v>54</v>
@@ -7716,31 +7517,31 @@
         <v>54</v>
       </c>
       <c r="T51" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="U51" t="s">
         <v>55</v>
       </c>
       <c r="V51" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W51" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X51" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z51" t="s">
         <v>56</v>
       </c>
       <c r="AC51" t="s">
-        <v>369</v>
+        <v>248</v>
       </c>
       <c r="AD51" t="s">
         <v>58</v>
       </c>
       <c r="AF51" s="1">
-        <v>1342520000000</v>
+        <v>1245700000000</v>
       </c>
       <c r="AI51" t="s">
         <v>59</v>
@@ -7749,16 +7550,16 @@
         <v>59</v>
       </c>
       <c r="AM51" t="s">
-        <v>367</v>
+        <v>246</v>
       </c>
       <c r="AO51" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="AP51" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="AQ51">
-        <v>2322</v>
+        <v>5117</v>
       </c>
       <c r="AR51" t="s">
         <v>50</v>
@@ -7766,49 +7567,49 @@
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>347537</v>
+        <v>348063</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>461</v>
       </c>
       <c r="D52">
-        <v>431063073</v>
+        <v>886322446</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>462</v>
       </c>
       <c r="F52" t="s">
-        <v>252</v>
+        <v>463</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>464</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="J52">
-        <v>4555</v>
+        <v>5540</v>
       </c>
       <c r="K52" t="s">
         <v>50</v>
       </c>
       <c r="L52" s="1">
-        <v>181089000000</v>
+        <v>160707000000</v>
       </c>
       <c r="M52" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="N52" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="Q52" t="s">
         <v>54</v>
@@ -7817,31 +7618,31 @@
         <v>54</v>
       </c>
       <c r="T52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="U52" t="s">
         <v>55</v>
       </c>
       <c r="V52" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W52" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X52" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z52" t="s">
         <v>56</v>
       </c>
       <c r="AC52" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="AD52" t="s">
         <v>58</v>
       </c>
       <c r="AF52" s="1">
-        <v>1342180000000</v>
+        <v>1246130000000</v>
       </c>
       <c r="AI52" t="s">
         <v>59</v>
@@ -7850,16 +7651,16 @@
         <v>59</v>
       </c>
       <c r="AM52" t="s">
-        <v>252</v>
+        <v>463</v>
       </c>
       <c r="AO52" t="s">
-        <v>253</v>
+        <v>464</v>
       </c>
       <c r="AP52" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="AQ52">
-        <v>4555</v>
+        <v>5540</v>
       </c>
       <c r="AR52" t="s">
         <v>50</v>
@@ -7867,49 +7668,46 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>347944</v>
+        <v>347881</v>
       </c>
       <c r="B53" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>397</v>
-      </c>
-      <c r="D53">
-        <v>20415700959</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="H53" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="I53" t="s">
         <v>110</v>
       </c>
       <c r="J53">
-        <v>2210</v>
+        <v>2322</v>
       </c>
       <c r="K53" t="s">
         <v>50</v>
       </c>
       <c r="L53" s="1">
-        <v>161060000000</v>
+        <v>181089000000</v>
       </c>
       <c r="M53" t="s">
-        <v>402</v>
+        <v>254</v>
       </c>
       <c r="N53" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="Q53" t="s">
         <v>54</v>
@@ -7918,7 +7716,7 @@
         <v>54</v>
       </c>
       <c r="T53" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="U53" t="s">
         <v>55</v>
@@ -7936,13 +7734,13 @@
         <v>56</v>
       </c>
       <c r="AC53" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AD53" t="s">
         <v>58</v>
       </c>
       <c r="AF53" s="1">
-        <v>1246080000000</v>
+        <v>1342520000000</v>
       </c>
       <c r="AI53" t="s">
         <v>59</v>
@@ -7951,19 +7749,16 @@
         <v>59</v>
       </c>
       <c r="AM53" t="s">
-        <v>399</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="AO53" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="AP53" t="s">
         <v>110</v>
       </c>
       <c r="AQ53">
-        <v>2210</v>
+        <v>2322</v>
       </c>
       <c r="AR53" t="s">
         <v>50</v>
@@ -7971,49 +7766,49 @@
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>348145</v>
+        <v>347537</v>
       </c>
       <c r="B54" t="s">
-        <v>494</v>
+        <v>249</v>
       </c>
       <c r="C54" t="s">
-        <v>495</v>
+        <v>250</v>
       </c>
       <c r="D54">
-        <v>354496314</v>
+        <v>431063073</v>
       </c>
       <c r="E54" t="s">
-        <v>496</v>
+        <v>251</v>
       </c>
       <c r="F54" t="s">
-        <v>497</v>
+        <v>252</v>
       </c>
       <c r="H54" t="s">
-        <v>498</v>
+        <v>253</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="J54">
-        <v>3550</v>
+        <v>4555</v>
       </c>
       <c r="K54" t="s">
         <v>50</v>
       </c>
       <c r="L54" s="1">
-        <v>151409000000</v>
+        <v>181089000000</v>
       </c>
       <c r="M54" t="s">
-        <v>499</v>
+        <v>254</v>
       </c>
       <c r="N54" t="s">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="Q54" t="s">
         <v>54</v>
@@ -8022,34 +7817,31 @@
         <v>54</v>
       </c>
       <c r="T54" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="U54" t="s">
         <v>55</v>
       </c>
       <c r="V54" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W54" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X54" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AC54" t="s">
-        <v>501</v>
+        <v>256</v>
       </c>
       <c r="AD54" t="s">
         <v>58</v>
       </c>
       <c r="AF54" s="1">
-        <v>1239110000000</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>502</v>
+        <v>1342180000000</v>
       </c>
       <c r="AI54" t="s">
         <v>59</v>
@@ -8058,16 +7850,16 @@
         <v>59</v>
       </c>
       <c r="AM54" t="s">
-        <v>497</v>
+        <v>252</v>
       </c>
       <c r="AO54" t="s">
-        <v>498</v>
+        <v>253</v>
       </c>
       <c r="AP54" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="AQ54">
-        <v>3550</v>
+        <v>4555</v>
       </c>
       <c r="AR54" t="s">
         <v>50</v>
@@ -8075,46 +7867,49 @@
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>347291</v>
+        <v>347944</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>396</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>397</v>
+      </c>
+      <c r="D55">
+        <v>20415700959</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>398</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>399</v>
       </c>
       <c r="H55" t="s">
-        <v>172</v>
+        <v>400</v>
       </c>
       <c r="I55" t="s">
         <v>110</v>
       </c>
       <c r="J55">
-        <v>2400</v>
+        <v>2210</v>
       </c>
       <c r="K55" t="s">
         <v>50</v>
       </c>
       <c r="L55" s="1">
-        <v>151072000000</v>
+        <v>161060000000</v>
       </c>
       <c r="M55" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
       <c r="N55" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q55" t="s">
         <v>54</v>
@@ -8123,31 +7918,31 @@
         <v>54</v>
       </c>
       <c r="T55" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="U55" t="s">
         <v>55</v>
       </c>
       <c r="V55" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W55" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X55" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z55" t="s">
         <v>56</v>
       </c>
       <c r="AC55" t="s">
-        <v>176</v>
+        <v>404</v>
       </c>
       <c r="AD55" t="s">
         <v>58</v>
       </c>
       <c r="AF55" s="1">
-        <v>1238540000000</v>
+        <v>1246080000000</v>
       </c>
       <c r="AI55" t="s">
         <v>59</v>
@@ -8156,16 +7951,19 @@
         <v>59</v>
       </c>
       <c r="AM55" t="s">
-        <v>171</v>
+        <v>399</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>400</v>
       </c>
       <c r="AO55" t="s">
-        <v>172</v>
+        <v>401</v>
       </c>
       <c r="AP55" t="s">
         <v>110</v>
       </c>
       <c r="AQ55">
-        <v>2400</v>
+        <v>2210</v>
       </c>
       <c r="AR55" t="s">
         <v>50</v>
@@ -8173,43 +7971,43 @@
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>347485</v>
+        <v>348145</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>494</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>495</v>
       </c>
       <c r="D56">
-        <v>438881382</v>
+        <v>354496314</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>496</v>
       </c>
       <c r="F56" t="s">
-        <v>238</v>
+        <v>497</v>
       </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>498</v>
       </c>
       <c r="I56" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="J56">
-        <v>830</v>
+        <v>3550</v>
       </c>
       <c r="K56" t="s">
         <v>50</v>
       </c>
       <c r="L56" s="1">
-        <v>151072000000</v>
+        <v>151409000000</v>
       </c>
       <c r="M56" t="s">
-        <v>173</v>
+        <v>499</v>
       </c>
       <c r="N56" t="s">
-        <v>174</v>
+        <v>500</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -8230,25 +8028,28 @@
         <v>55</v>
       </c>
       <c r="V56" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="W56" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="X56" s="2">
-        <v>42109</v>
+        <v>42110</v>
       </c>
       <c r="Z56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AC56" t="s">
-        <v>242</v>
+        <v>501</v>
       </c>
       <c r="AD56" t="s">
         <v>58</v>
       </c>
       <c r="AF56" s="1">
-        <v>1238620000000</v>
+        <v>1239110000000</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>502</v>
       </c>
       <c r="AI56" t="s">
         <v>59</v>
@@ -8257,19 +8058,16 @@
         <v>59</v>
       </c>
       <c r="AM56" t="s">
-        <v>238</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>239</v>
+        <v>497</v>
       </c>
       <c r="AO56" t="s">
-        <v>240</v>
+        <v>498</v>
       </c>
       <c r="AP56" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="AQ56">
-        <v>830</v>
+        <v>3550</v>
       </c>
       <c r="AR56" t="s">
         <v>50</v>
@@ -8277,31 +8075,28 @@
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>347601</v>
+        <v>347291</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57">
-        <v>422270186</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="F57" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="H57" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="I57" t="s">
         <v>110</v>
       </c>
       <c r="J57">
-        <v>2580</v>
+        <v>2400</v>
       </c>
       <c r="K57" t="s">
         <v>50</v>
@@ -8313,7 +8108,7 @@
         <v>173</v>
       </c>
       <c r="N57" t="s">
-        <v>174</v>
+        <v>508</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -8346,13 +8141,13 @@
         <v>56</v>
       </c>
       <c r="AC57" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="AD57" t="s">
         <v>58</v>
       </c>
       <c r="AF57" s="1">
-        <v>1238660000000</v>
+        <v>1238540000000</v>
       </c>
       <c r="AI57" t="s">
         <v>59</v>
@@ -8361,16 +8156,16 @@
         <v>59</v>
       </c>
       <c r="AM57" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="AO57" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="AP57" t="s">
         <v>110</v>
       </c>
       <c r="AQ57">
-        <v>2580</v>
+        <v>2400</v>
       </c>
       <c r="AR57" t="s">
         <v>50</v>
@@ -8378,49 +8173,49 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>347823</v>
+        <v>347485</v>
       </c>
       <c r="B58" t="s">
-        <v>356</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>357</v>
+        <v>236</v>
       </c>
       <c r="D58">
-        <v>358712148</v>
+        <v>438881382</v>
       </c>
       <c r="E58" t="s">
-        <v>358</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="H58" t="s">
-        <v>360</v>
+        <v>239</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="J58">
-        <v>3644</v>
+        <v>830</v>
       </c>
       <c r="K58" t="s">
         <v>50</v>
       </c>
       <c r="L58" s="1">
-        <v>150853000000</v>
+        <v>151072000000</v>
       </c>
       <c r="M58" t="s">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="N58" t="s">
-        <v>362</v>
+        <v>174</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="Q58" t="s">
         <v>54</v>
@@ -8429,31 +8224,31 @@
         <v>54</v>
       </c>
       <c r="T58" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="U58" t="s">
         <v>55</v>
       </c>
       <c r="V58" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="W58" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="X58" s="2">
-        <v>42110</v>
+        <v>42109</v>
       </c>
       <c r="Z58" t="s">
         <v>56</v>
       </c>
       <c r="AC58" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="AD58" t="s">
         <v>58</v>
       </c>
       <c r="AF58" s="1">
-        <v>1238970000000</v>
+        <v>1238620000000</v>
       </c>
       <c r="AI58" t="s">
         <v>59</v>
@@ -8462,16 +8257,19 @@
         <v>59</v>
       </c>
       <c r="AM58" t="s">
-        <v>359</v>
+        <v>238</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>239</v>
       </c>
       <c r="AO58" t="s">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="AP58" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="AQ58">
-        <v>3644</v>
+        <v>830</v>
       </c>
       <c r="AR58" t="s">
         <v>50</v>
@@ -8479,49 +8277,49 @@
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>334999</v>
+        <v>347601</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="D59">
-        <v>429861300</v>
+        <v>422270186</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J59">
-        <v>3880</v>
+        <v>2580</v>
       </c>
       <c r="K59" t="s">
         <v>50</v>
       </c>
       <c r="L59" s="1">
-        <v>150972000000</v>
+        <v>151072000000</v>
       </c>
       <c r="M59" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="N59" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="O59">
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="Q59" t="s">
         <v>54</v>
@@ -8530,31 +8328,31 @@
         <v>54</v>
       </c>
       <c r="T59" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="U59" t="s">
         <v>55</v>
       </c>
       <c r="V59" s="2">
-        <v>42080</v>
+        <v>42109</v>
       </c>
       <c r="W59" s="2">
-        <v>42080</v>
+        <v>42109</v>
       </c>
       <c r="X59" s="2">
-        <v>42080</v>
+        <v>42109</v>
       </c>
       <c r="Z59" t="s">
         <v>56</v>
       </c>
       <c r="AC59" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="AD59" t="s">
         <v>58</v>
       </c>
       <c r="AF59" s="1">
-        <v>1225430000000</v>
+        <v>1238660000000</v>
       </c>
       <c r="AI59" t="s">
         <v>59</v>
@@ -8563,16 +8361,16 @@
         <v>59</v>
       </c>
       <c r="AM59" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="AO59" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="AP59" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AQ59">
-        <v>3880</v>
+        <v>2580</v>
       </c>
       <c r="AR59" t="s">
         <v>50</v>
@@ -8580,49 +8378,49 @@
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>347760</v>
+        <v>347823</v>
       </c>
       <c r="B60" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C60" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="D60">
-        <v>267522564</v>
+        <v>358712148</v>
       </c>
       <c r="E60" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="F60" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="H60" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J60">
-        <v>2400</v>
+        <v>3644</v>
       </c>
       <c r="K60" t="s">
         <v>50</v>
       </c>
       <c r="L60" s="1">
-        <v>181038000000</v>
+        <v>150853000000</v>
       </c>
       <c r="M60" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="N60" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>103</v>
       </c>
       <c r="Q60" t="s">
         <v>54</v>
@@ -8631,7 +8429,7 @@
         <v>54</v>
       </c>
       <c r="T60" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="U60" t="s">
         <v>55</v>
@@ -8649,13 +8447,13 @@
         <v>56</v>
       </c>
       <c r="AC60" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="AD60" t="s">
         <v>58</v>
       </c>
       <c r="AF60" s="1">
-        <v>1342470000000</v>
+        <v>1238970000000</v>
       </c>
       <c r="AI60" t="s">
         <v>59</v>
@@ -8664,16 +8462,16 @@
         <v>59</v>
       </c>
       <c r="AM60" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="AO60" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="AP60" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AQ60">
-        <v>2400</v>
+        <v>3644</v>
       </c>
       <c r="AR60" t="s">
         <v>50</v>
@@ -8681,43 +8479,49 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>347748</v>
+        <v>334999</v>
       </c>
       <c r="B61" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="D61">
-        <v>20409325953</v>
+        <v>429861300</v>
       </c>
       <c r="E61" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J61">
-        <v>2291</v>
+        <v>3880</v>
       </c>
       <c r="K61" t="s">
         <v>50</v>
       </c>
+      <c r="L61" s="1">
+        <v>150972000000</v>
+      </c>
+      <c r="M61" t="s">
+        <v>51</v>
+      </c>
       <c r="N61" t="s">
-        <v>507</v>
+        <v>52</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="Q61" t="s">
         <v>54</v>
@@ -8726,84 +8530,280 @@
         <v>54</v>
       </c>
       <c r="T61" t="s">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="U61" t="s">
         <v>55</v>
       </c>
       <c r="V61" s="2">
-        <v>42110</v>
+        <v>42080</v>
       </c>
       <c r="W61" s="2">
-        <v>42110</v>
+        <v>42080</v>
       </c>
       <c r="X61" s="2">
-        <v>42110</v>
+        <v>42080</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>56</v>
       </c>
       <c r="AC61" t="s">
-        <v>333</v>
+        <v>57</v>
       </c>
       <c r="AD61" t="s">
         <v>58</v>
       </c>
-      <c r="AG61" s="1">
+      <c r="AF61" s="1">
+        <v>1225430000000</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ61">
+        <v>3880</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>347760</v>
+      </c>
+      <c r="B62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62">
+        <v>267522564</v>
+      </c>
+      <c r="E62" t="s">
+        <v>336</v>
+      </c>
+      <c r="F62" t="s">
+        <v>337</v>
+      </c>
+      <c r="H62" t="s">
+        <v>338</v>
+      </c>
+      <c r="I62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62">
+        <v>2400</v>
+      </c>
+      <c r="K62" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="1">
+        <v>181038000000</v>
+      </c>
+      <c r="M62" t="s">
+        <v>339</v>
+      </c>
+      <c r="N62" t="s">
+        <v>340</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>54</v>
+      </c>
+      <c r="R62" t="s">
+        <v>54</v>
+      </c>
+      <c r="T62" t="s">
+        <v>342</v>
+      </c>
+      <c r="U62" t="s">
+        <v>55</v>
+      </c>
+      <c r="V62" s="2">
+        <v>42110</v>
+      </c>
+      <c r="W62" s="2">
+        <v>42110</v>
+      </c>
+      <c r="X62" s="2">
+        <v>42110</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>1342470000000</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ62">
+        <v>2400</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>347748</v>
+      </c>
+      <c r="B63" t="s">
+        <v>327</v>
+      </c>
+      <c r="C63" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63">
+        <v>20409325953</v>
+      </c>
+      <c r="E63" t="s">
+        <v>329</v>
+      </c>
+      <c r="F63" t="s">
+        <v>330</v>
+      </c>
+      <c r="H63" t="s">
+        <v>331</v>
+      </c>
+      <c r="I63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63">
+        <v>2291</v>
+      </c>
+      <c r="K63" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" t="s">
+        <v>507</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>54</v>
+      </c>
+      <c r="R63" t="s">
+        <v>54</v>
+      </c>
+      <c r="T63" t="s">
+        <v>332</v>
+      </c>
+      <c r="U63" t="s">
+        <v>55</v>
+      </c>
+      <c r="V63" s="2">
+        <v>42110</v>
+      </c>
+      <c r="W63" s="2">
+        <v>42110</v>
+      </c>
+      <c r="X63" s="2">
+        <v>42110</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG63" s="1">
         <v>187013000000</v>
       </c>
-      <c r="AI61" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM61" t="s">
+      <c r="AI63" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM63" t="s">
         <v>330</v>
       </c>
-      <c r="AO61" t="s">
+      <c r="AO63" t="s">
         <v>331</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AP63" t="s">
         <v>110</v>
       </c>
-      <c r="AQ61">
+      <c r="AQ63">
         <v>2291</v>
       </c>
-      <c r="AR61" t="s">
+      <c r="AR63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>503</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>504</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D66" s="2">
         <v>42080</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E66" s="3">
         <v>0.75534722222222228</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F66" t="s">
         <v>505</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G66" s="2">
         <v>42110</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H66" s="3">
         <v>0.95300925925925928</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>506</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS62">
+  <autoFilter ref="A2:AS64">
     <sortState ref="A2:AS63">
       <sortCondition descending="1" ref="N1:N63"/>
     </sortState>
